--- a/tests/testthat/_snaps/knitxl/plot1.xlsx
+++ b/tests/testthat/_snaps/knitxl/plot1.xlsx
@@ -9,20 +9,6 @@
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">```{r}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plot(1:3, 1:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">```</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65,6 +51,41 @@
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+    <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:col>
+      <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
+      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:row>
+      <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="6400800" cy="6400800"/>
+    <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="1" name="Picture 1"/>
+        <xdr:cNvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,24 +372,9 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/testthat/_snaps/knitxl/plot1.xlsx
+++ b/tests/testthat/_snaps/knitxl/plot1.xlsx
@@ -11,16 +11,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">plot(1:3, 1:3)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,8 +56,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -59,7 +73,7 @@
     <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
       <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:col>
       <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
-      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:row>
+      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">2</xdr:row>
       <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
     </xdr:from>
     <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="6400800" cy="6400800"/>
@@ -372,7 +386,13 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <drawing r:id="rId1"/>

--- a/tests/testthat/_snaps/knitxl/plot1.xlsx
+++ b/tests/testthat/_snaps/knitxl/plot1.xlsx
@@ -383,7 +383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
